--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,85 +456,95 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Штраф</t>
+          <t>Номер сигнала</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Штраф 1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Штраф 2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Такт 1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Такт 2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Такт 3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Такт 4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Такт 5</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Такт 6</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Такт 7</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Такт 8</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Такт 9</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Такт 10</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Такт 11</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Такт 12</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Такт 13</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Такт 14</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Такт 15</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Такт 16</t>
         </is>
@@ -560,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -605,6 +615,12 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -625,13 +641,13 @@
         <v>32000</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -673,6 +689,12 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,13 +715,13 @@
         <v>32000</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -741,6 +763,12 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,54 +789,60 @@
         <v>32000</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -829,54 +863,60 @@
         <v>32000</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -897,54 +937,60 @@
         <v>32000</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -965,13 +1011,13 @@
         <v>32000</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1004,15 +1050,21 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,19 +1085,19 @@
         <v>32000</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1063,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1081,6 +1133,12 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1101,25 +1159,25 @@
         <v>32000</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1137,18 +1195,24 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1169,13 +1233,13 @@
         <v>32000</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1190,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1214,9 +1278,15 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1237,22 +1307,22 @@
         <v>32000</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1285,6 +1355,12 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1305,13 +1381,13 @@
         <v>32000</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1320,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1353,6 +1429,12 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,13 +1455,13 @@
         <v>32000</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1400,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1421,6 +1503,12 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1441,13 +1529,13 @@
         <v>32000</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1489,6 +1577,12 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1509,16 +1603,16 @@
         <v>32000</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1557,6 +1651,12 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1577,54 +1677,60 @@
         <v>32000</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1645,13 +1751,13 @@
         <v>32000</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1663,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1687,12 +1793,18 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1713,19 +1825,19 @@
         <v>32000</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1743,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1761,6 +1873,12 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1781,13 +1899,13 @@
         <v>32000</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1805,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1829,6 +1947,12 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1849,13 +1973,13 @@
         <v>32000</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1894,9 +2018,15 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1917,22 +2047,22 @@
         <v>32000</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1965,6 +2095,12 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1985,7 +2121,7 @@
         <v>32000</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2033,6 +2169,12 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2053,7 +2195,7 @@
         <v>32000</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2101,6 +2243,12 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2121,22 +2269,22 @@
         <v>32000</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2154,13 +2302,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2169,6 +2317,12 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2189,13 +2343,13 @@
         <v>32000</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2204,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2228,15 +2382,21 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,13 +2417,13 @@
         <v>32000</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.0005040322580645161</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2281,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2305,6 +2465,12 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2325,25 +2491,25 @@
         <v>32000</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2373,6 +2539,12 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2393,13 +2565,13 @@
         <v>32000</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2411,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2441,6 +2613,12 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2461,13 +2639,13 @@
         <v>32000</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2482,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2509,6 +2687,12 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2529,13 +2713,13 @@
         <v>32000</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2571,12 +2755,18 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2597,19 +2787,19 @@
         <v>32000</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.000126008064516129</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2645,6 +2835,12 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>0</v>
       </c>
     </row>
